--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/PriceEvaluationTableModel.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/PriceEvaluationTableModel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\代码\财务\二开\Finance_V2\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\朱正义\source\repos\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2DD645-5F34-4758-B974-34EECF5C986D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A25BCB-E4C6-4A1D-9637-500437420B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="163">
   <si>
     <t>密级：</t>
   </si>
@@ -600,6 +600,14 @@
   </si>
   <si>
     <t>{{OtherCostItem2.OtherCost}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改意见</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Material.ModificationComments}}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1469,7 +1477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1966,129 +1974,15 @@
     <xf numFmtId="179" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="8" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="13" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2101,14 +1995,7 @@
     <xf numFmtId="180" fontId="8" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2142,9 +2029,6 @@
     <xf numFmtId="177" fontId="13" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2155,6 +2039,99 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2164,8 +2141,56 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2185,26 +2210,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="182" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2243,15 +2250,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>771525</xdr:colOff>
+          <xdr:colOff>774700</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2300,7 +2307,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2341,11 +2348,11 @@
           <xdr:col>16</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>127000</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2396,7 +2403,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2435,13 +2442,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>828675</xdr:colOff>
+          <xdr:colOff>831850</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2492,7 +2499,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2834,29 +2841,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="9.58203125" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" customWidth="1"/>
     <col min="13" max="13" width="11.75" customWidth="1"/>
-    <col min="14" max="14" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="13.08203125" customWidth="1"/>
     <col min="15" max="15" width="15.5" customWidth="1"/>
     <col min="16" max="16" width="13.5" customWidth="1"/>
     <col min="17" max="17" width="12.75" customWidth="1"/>
-    <col min="18" max="18" width="12.875" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" customWidth="1"/>
     <col min="19" max="19" width="12.5" customWidth="1"/>
-    <col min="20" max="20" width="12.125" customWidth="1"/>
+    <col min="20" max="20" width="12.08203125" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2880,7 +2887,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2906,8 +2913,8 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="237"/>
+    <row r="3" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="195"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2917,134 +2924,134 @@
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="239"/>
-      <c r="R3" s="239"/>
-      <c r="S3" s="240" t="s">
+      <c r="K3" s="195"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="197"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="198" t="s">
         <v>1</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="241" t="s">
+    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="230" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="242"/>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
-      <c r="N4" s="242"/>
-      <c r="O4" s="242"/>
-      <c r="P4" s="242"/>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="242"/>
-      <c r="S4" s="243"/>
+      <c r="B4" s="231"/>
+      <c r="C4" s="231"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="231"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="231"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="231"/>
+      <c r="J4" s="231"/>
+      <c r="K4" s="231"/>
+      <c r="L4" s="231"/>
+      <c r="M4" s="231"/>
+      <c r="N4" s="231"/>
+      <c r="O4" s="231"/>
+      <c r="P4" s="231"/>
+      <c r="Q4" s="231"/>
+      <c r="R4" s="231"/>
+      <c r="S4" s="232"/>
       <c r="T4" s="11"/>
       <c r="U4" s="12"/>
-      <c r="V4" s="222" t="s">
+      <c r="V4" s="183" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="176"/>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="244"/>
-      <c r="L5" s="244"/>
-      <c r="M5" s="244"/>
-      <c r="N5" s="244"/>
-      <c r="O5" s="244"/>
-      <c r="P5" s="244"/>
-      <c r="Q5" s="244"/>
-      <c r="R5" s="244"/>
-      <c r="S5" s="177"/>
+    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="233"/>
+      <c r="B5" s="234"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
+      <c r="G5" s="234"/>
+      <c r="H5" s="234"/>
+      <c r="I5" s="234"/>
+      <c r="J5" s="234"/>
+      <c r="K5" s="234"/>
+      <c r="L5" s="234"/>
+      <c r="M5" s="234"/>
+      <c r="N5" s="234"/>
+      <c r="O5" s="234"/>
+      <c r="P5" s="234"/>
+      <c r="Q5" s="234"/>
+      <c r="R5" s="234"/>
+      <c r="S5" s="235"/>
       <c r="T5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="U5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="V5" s="223"/>
+      <c r="V5" s="239"/>
     </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="176"/>
-      <c r="B6" s="244"/>
-      <c r="C6" s="244"/>
-      <c r="D6" s="244"/>
-      <c r="E6" s="244"/>
-      <c r="F6" s="244"/>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="244"/>
-      <c r="K6" s="244"/>
-      <c r="L6" s="244"/>
-      <c r="M6" s="244"/>
-      <c r="N6" s="244"/>
-      <c r="O6" s="244"/>
-      <c r="P6" s="244"/>
-      <c r="Q6" s="244"/>
-      <c r="R6" s="244"/>
-      <c r="S6" s="177"/>
+    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="233"/>
+      <c r="B6" s="234"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
+      <c r="G6" s="234"/>
+      <c r="H6" s="234"/>
+      <c r="I6" s="234"/>
+      <c r="J6" s="234"/>
+      <c r="K6" s="234"/>
+      <c r="L6" s="234"/>
+      <c r="M6" s="234"/>
+      <c r="N6" s="234"/>
+      <c r="O6" s="234"/>
+      <c r="P6" s="234"/>
+      <c r="Q6" s="234"/>
+      <c r="R6" s="234"/>
+      <c r="S6" s="235"/>
       <c r="T6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="V6" s="223"/>
+      <c r="V6" s="239"/>
     </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="178"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="180"/>
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="236"/>
+      <c r="B7" s="237"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="237"/>
+      <c r="G7" s="237"/>
+      <c r="H7" s="237"/>
+      <c r="I7" s="237"/>
+      <c r="J7" s="237"/>
+      <c r="K7" s="237"/>
+      <c r="L7" s="237"/>
+      <c r="M7" s="237"/>
+      <c r="N7" s="237"/>
+      <c r="O7" s="237"/>
+      <c r="P7" s="237"/>
+      <c r="Q7" s="237"/>
+      <c r="R7" s="237"/>
+      <c r="S7" s="238"/>
       <c r="T7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="U7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="V7" s="224"/>
+      <c r="V7" s="240"/>
     </row>
-    <row r="8" spans="1:23" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -3081,10 +3088,10 @@
       <c r="L8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="211" t="s">
+      <c r="M8" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="211" t="s">
+      <c r="N8" s="176" t="s">
         <v>19</v>
       </c>
       <c r="O8" s="22" t="s">
@@ -3108,12 +3115,14 @@
       <c r="U8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="V8" s="225" t="s">
+      <c r="V8" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="W8" s="221"/>
+      <c r="W8" s="256" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>83</v>
       </c>
@@ -3177,20 +3186,22 @@
       <c r="U9" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="V9" s="226" t="s">
+      <c r="V9" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="W9" s="236"/>
+      <c r="W9" s="25" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="181" t="s">
+    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.4">
+      <c r="A10" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="182"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
+      <c r="B10" s="242"/>
+      <c r="C10" s="242"/>
+      <c r="D10" s="242"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="28"/>
@@ -3214,9 +3225,9 @@
       </c>
       <c r="T10" s="33"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="227"/>
+      <c r="V10" s="186"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="34"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -3242,9 +3253,9 @@
       <c r="S11" s="41"/>
       <c r="T11" s="43"/>
       <c r="U11" s="40"/>
-      <c r="V11" s="228"/>
+      <c r="V11" s="187"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="34"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -3270,9 +3281,9 @@
       <c r="S12" s="41"/>
       <c r="T12" s="43"/>
       <c r="U12" s="40"/>
-      <c r="V12" s="228"/>
+      <c r="V12" s="187"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="34"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -3294,9 +3305,9 @@
       <c r="S13" s="41"/>
       <c r="T13" s="43"/>
       <c r="U13" s="40"/>
-      <c r="V13" s="228"/>
+      <c r="V13" s="187"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
@@ -3314,51 +3325,51 @@
       <c r="O14" s="52"/>
       <c r="P14" s="52"/>
       <c r="Q14" s="52"/>
-      <c r="R14" s="217"/>
-      <c r="S14" s="218"/>
-      <c r="T14" s="219"/>
-      <c r="U14" s="218"/>
-      <c r="V14" s="229"/>
+      <c r="R14" s="179"/>
+      <c r="S14" s="180"/>
+      <c r="T14" s="181"/>
+      <c r="U14" s="180"/>
+      <c r="V14" s="188"/>
     </row>
-    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="184" t="s">
+    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="244" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="185"/>
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
+      <c r="B15" s="245"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="245"/>
+      <c r="E15" s="246"/>
+      <c r="F15" s="246"/>
       <c r="G15" s="55"/>
-      <c r="H15" s="186" t="s">
+      <c r="H15" s="246" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="186"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="186"/>
-      <c r="L15" s="186"/>
-      <c r="M15" s="212" t="s">
+      <c r="I15" s="246"/>
+      <c r="J15" s="246"/>
+      <c r="K15" s="246"/>
+      <c r="L15" s="246"/>
+      <c r="M15" s="248" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="213"/>
-      <c r="O15" s="213"/>
-      <c r="P15" s="185"/>
-      <c r="Q15" s="216" t="s">
+      <c r="N15" s="249"/>
+      <c r="O15" s="249"/>
+      <c r="P15" s="245"/>
+      <c r="Q15" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="R15" s="245"/>
-      <c r="S15" s="246"/>
-      <c r="T15" s="246"/>
-      <c r="U15" s="246"/>
-      <c r="V15" s="247"/>
+      <c r="R15" s="250"/>
+      <c r="S15" s="251"/>
+      <c r="T15" s="251"/>
+      <c r="U15" s="251"/>
+      <c r="V15" s="252"/>
     </row>
-    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="184"/>
-      <c r="B16" s="185"/>
-      <c r="C16" s="185"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
+    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="244"/>
+      <c r="B16" s="245"/>
+      <c r="C16" s="245"/>
+      <c r="D16" s="245"/>
+      <c r="E16" s="246"/>
+      <c r="F16" s="246"/>
       <c r="G16" s="55"/>
       <c r="H16" s="57" t="s">
         <v>36</v>
@@ -3387,22 +3398,22 @@
       <c r="P16" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="216"/>
-      <c r="R16" s="248"/>
-      <c r="S16" s="249"/>
-      <c r="T16" s="249"/>
-      <c r="U16" s="249"/>
-      <c r="V16" s="250"/>
+      <c r="Q16" s="247"/>
+      <c r="R16" s="253"/>
+      <c r="S16" s="254"/>
+      <c r="T16" s="254"/>
+      <c r="U16" s="254"/>
+      <c r="V16" s="255"/>
     </row>
-    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="188" t="s">
+    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="222" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="189"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
+      <c r="B17" s="223"/>
+      <c r="C17" s="223"/>
+      <c r="D17" s="223"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="224"/>
       <c r="G17" s="62"/>
       <c r="H17" s="63" t="s">
         <v>112</v>
@@ -3434,13 +3445,13 @@
       <c r="Q17" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="R17" s="248"/>
-      <c r="S17" s="249"/>
-      <c r="T17" s="249"/>
-      <c r="U17" s="249"/>
-      <c r="V17" s="250"/>
+      <c r="R17" s="253"/>
+      <c r="S17" s="254"/>
+      <c r="T17" s="254"/>
+      <c r="U17" s="254"/>
+      <c r="V17" s="255"/>
     </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="64"/>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
@@ -3458,24 +3469,24 @@
       <c r="O18" s="71"/>
       <c r="P18" s="71"/>
       <c r="Q18" s="71"/>
-      <c r="R18" s="220"/>
-      <c r="S18" s="214"/>
-      <c r="T18" s="215"/>
-      <c r="U18" s="214"/>
-      <c r="V18" s="230"/>
+      <c r="R18" s="182"/>
+      <c r="S18" s="177"/>
+      <c r="T18" s="178"/>
+      <c r="U18" s="177"/>
+      <c r="V18" s="189"/>
     </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="191" t="s">
+    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="225" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="191"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
+      <c r="B19" s="225"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="225"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="225"/>
       <c r="G19" s="73"/>
-      <c r="H19" s="253"/>
-      <c r="I19" s="251" t="s">
+      <c r="H19" s="201"/>
+      <c r="I19" s="199" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="75" t="s">
@@ -3500,19 +3511,19 @@
       <c r="S19" s="79"/>
       <c r="T19" s="81"/>
       <c r="U19" s="82"/>
-      <c r="V19" s="231"/>
+      <c r="V19" s="190"/>
     </row>
-    <row r="20" spans="1:22" ht="33" x14ac:dyDescent="0.2">
-      <c r="A20" s="192" t="s">
+    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="226" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="192"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="192"/>
+      <c r="B20" s="226"/>
+      <c r="C20" s="226"/>
+      <c r="D20" s="226"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="226"/>
       <c r="G20" s="83"/>
-      <c r="H20" s="254"/>
+      <c r="H20" s="202"/>
       <c r="I20" s="75" t="s">
         <v>122</v>
       </c>
@@ -3538,19 +3549,19 @@
       <c r="S20" s="79"/>
       <c r="T20" s="81"/>
       <c r="U20" s="82"/>
-      <c r="V20" s="231"/>
+      <c r="V20" s="190"/>
     </row>
-    <row r="21" spans="1:22" ht="33" x14ac:dyDescent="0.2">
-      <c r="A21" s="255" t="s">
+    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="227" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="255"/>
-      <c r="C21" s="255"/>
-      <c r="D21" s="255"/>
-      <c r="E21" s="255"/>
-      <c r="F21" s="255"/>
-      <c r="G21" s="256"/>
-      <c r="H21" s="253"/>
+      <c r="B21" s="227"/>
+      <c r="C21" s="227"/>
+      <c r="D21" s="227"/>
+      <c r="E21" s="227"/>
+      <c r="F21" s="227"/>
+      <c r="G21" s="203"/>
+      <c r="H21" s="201"/>
       <c r="I21" s="75" t="s">
         <v>127</v>
       </c>
@@ -3576,9 +3587,9 @@
       <c r="S21" s="85"/>
       <c r="T21" s="61"/>
       <c r="U21" s="82"/>
-      <c r="V21" s="231"/>
+      <c r="V21" s="190"/>
     </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="86"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
@@ -3586,7 +3597,7 @@
       <c r="E22" s="88"/>
       <c r="F22" s="89"/>
       <c r="G22" s="90"/>
-      <c r="H22" s="252"/>
+      <c r="H22" s="200"/>
       <c r="I22" s="91"/>
       <c r="J22" s="92"/>
       <c r="K22" s="93"/>
@@ -3600,17 +3611,17 @@
       <c r="S22" s="93"/>
       <c r="T22" s="94"/>
       <c r="U22" s="93"/>
-      <c r="V22" s="229"/>
+      <c r="V22" s="188"/>
     </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="193" t="s">
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="228" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="193"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="193"/>
+      <c r="B23" s="228"/>
+      <c r="C23" s="228"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="228"/>
       <c r="G23" s="96"/>
       <c r="H23" s="97" t="s">
         <v>46</v>
@@ -3654,17 +3665,17 @@
       <c r="U23" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="V23" s="232"/>
+      <c r="V23" s="191"/>
     </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="194" t="s">
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="229" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="194"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="194"/>
+      <c r="B24" s="229"/>
+      <c r="C24" s="229"/>
+      <c r="D24" s="229"/>
+      <c r="E24" s="229"/>
+      <c r="F24" s="229"/>
       <c r="G24" s="103"/>
       <c r="H24" s="104" t="s">
         <v>147</v>
@@ -3708,9 +3719,9 @@
       <c r="U24" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="V24" s="232"/>
+      <c r="V24" s="191"/>
     </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="106"/>
       <c r="B25" s="107"/>
       <c r="C25" s="107"/>
@@ -3732,56 +3743,56 @@
       <c r="S25" s="117"/>
       <c r="T25" s="118"/>
       <c r="U25" s="117"/>
-      <c r="V25" s="233"/>
+      <c r="V25" s="192"/>
     </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="207" t="s">
+    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="218" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="208"/>
-      <c r="C26" s="208"/>
-      <c r="D26" s="208"/>
-      <c r="E26" s="209"/>
-      <c r="F26" s="209"/>
+      <c r="B26" s="219"/>
+      <c r="C26" s="219"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="220"/>
       <c r="G26" s="119"/>
-      <c r="H26" s="210" t="s">
+      <c r="H26" s="221" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="210" t="s">
+      <c r="I26" s="221" t="s">
         <v>62</v>
       </c>
-      <c r="J26" s="209" t="s">
+      <c r="J26" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="K26" s="209"/>
-      <c r="L26" s="209"/>
-      <c r="M26" s="209" t="s">
+      <c r="K26" s="220"/>
+      <c r="L26" s="220"/>
+      <c r="M26" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="N26" s="209"/>
-      <c r="O26" s="209"/>
-      <c r="P26" s="209"/>
-      <c r="Q26" s="209" t="s">
+      <c r="N26" s="220"/>
+      <c r="O26" s="220"/>
+      <c r="P26" s="220"/>
+      <c r="Q26" s="220" t="s">
         <v>65</v>
       </c>
-      <c r="R26" s="195" t="s">
+      <c r="R26" s="205" t="s">
         <v>35</v>
       </c>
       <c r="S26" s="85"/>
       <c r="T26" s="61"/>
       <c r="U26" s="82"/>
-      <c r="V26" s="231"/>
+      <c r="V26" s="190"/>
     </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="207"/>
-      <c r="B27" s="208"/>
-      <c r="C27" s="208"/>
-      <c r="D27" s="208"/>
-      <c r="E27" s="209"/>
-      <c r="F27" s="209"/>
+    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="218"/>
+      <c r="B27" s="219"/>
+      <c r="C27" s="219"/>
+      <c r="D27" s="219"/>
+      <c r="E27" s="220"/>
+      <c r="F27" s="220"/>
       <c r="G27" s="119"/>
-      <c r="H27" s="210"/>
-      <c r="I27" s="210"/>
+      <c r="H27" s="221"/>
+      <c r="I27" s="221"/>
       <c r="J27" s="120" t="s">
         <v>66</v>
       </c>
@@ -3801,20 +3812,20 @@
       <c r="P27" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="209"/>
-      <c r="R27" s="195"/>
+      <c r="Q27" s="220"/>
+      <c r="R27" s="205"/>
       <c r="S27" s="85"/>
       <c r="T27" s="61"/>
       <c r="U27" s="82"/>
-      <c r="V27" s="231"/>
+      <c r="V27" s="190"/>
     </row>
-    <row r="28" spans="1:22" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="207"/>
-      <c r="B28" s="208"/>
-      <c r="C28" s="208"/>
-      <c r="D28" s="208"/>
-      <c r="E28" s="209"/>
-      <c r="F28" s="209"/>
+    <row r="28" spans="1:22" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="218"/>
+      <c r="B28" s="219"/>
+      <c r="C28" s="219"/>
+      <c r="D28" s="219"/>
+      <c r="E28" s="220"/>
+      <c r="F28" s="220"/>
       <c r="G28" s="119"/>
       <c r="H28" s="123" t="s">
         <v>133</v>
@@ -3848,17 +3859,17 @@
       <c r="S28" s="77"/>
       <c r="T28" s="77"/>
       <c r="U28" s="77"/>
-      <c r="V28" s="234"/>
+      <c r="V28" s="193"/>
     </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="196" t="s">
+    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="206" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="197"/>
-      <c r="C29" s="197"/>
-      <c r="D29" s="197"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
+      <c r="B29" s="207"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="208"/>
+      <c r="F29" s="208"/>
       <c r="G29" s="56"/>
       <c r="H29" s="124"/>
       <c r="I29" s="124"/>
@@ -3876,9 +3887,9 @@
       <c r="S29" s="130"/>
       <c r="T29" s="77"/>
       <c r="U29" s="131"/>
-      <c r="V29" s="235"/>
+      <c r="V29" s="194"/>
     </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="132"/>
       <c r="B30" s="133"/>
       <c r="C30" s="133"/>
@@ -3902,12 +3913,12 @@
       <c r="U30" s="71"/>
       <c r="V30" s="54"/>
     </row>
-    <row r="31" spans="1:22" ht="33" x14ac:dyDescent="0.2">
-      <c r="A31" s="198"/>
-      <c r="B31" s="199"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="200"/>
-      <c r="E31" s="204" t="s">
+    <row r="31" spans="1:22" ht="33" x14ac:dyDescent="0.3">
+      <c r="A31" s="209"/>
+      <c r="B31" s="210"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="211"/>
+      <c r="E31" s="215" t="s">
         <v>72</v>
       </c>
       <c r="F31" s="139" t="s">
@@ -3930,12 +3941,12 @@
       <c r="U31" s="131"/>
       <c r="V31" s="142"/>
     </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="201"/>
-      <c r="B32" s="202"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="203"/>
-      <c r="E32" s="204"/>
+    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="212"/>
+      <c r="B32" s="213"/>
+      <c r="C32" s="213"/>
+      <c r="D32" s="214"/>
+      <c r="E32" s="215"/>
       <c r="F32" s="143" t="s">
         <v>74</v>
       </c>
@@ -3956,15 +3967,15 @@
       <c r="U32" s="131"/>
       <c r="V32" s="142"/>
     </row>
-    <row r="33" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="205" t="s">
+    <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="216" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="206"/>
-      <c r="C33" s="206"/>
-      <c r="D33" s="206"/>
-      <c r="E33" s="206"/>
-      <c r="F33" s="257" t="s">
+      <c r="B33" s="217"/>
+      <c r="C33" s="217"/>
+      <c r="D33" s="217"/>
+      <c r="E33" s="217"/>
+      <c r="F33" s="204" t="s">
         <v>143</v>
       </c>
       <c r="G33" s="147"/>
@@ -3992,7 +4003,7 @@
       <c r="U33" s="150"/>
       <c r="V33" s="151"/>
     </row>
-    <row r="34" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A34" s="152"/>
       <c r="B34" s="153"/>
       <c r="C34" s="153"/>
@@ -4018,7 +4029,7 @@
       <c r="U34" s="158"/>
       <c r="V34" s="161"/>
     </row>
-    <row r="35" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="162"/>
       <c r="B35" s="163"/>
       <c r="C35" s="163"/>
@@ -4044,6 +4055,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A4:S7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A15:F16"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R15:V17"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A23:F23"/>
     <mergeCell ref="R26:R27"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="A31:D32"/>
@@ -4055,20 +4080,6 @@
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="M26:P26"/>
     <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A4:S7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A15:F16"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="R15:V17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -4077,27 +4088,28 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId3" name="Check Box 1">
+            <control shapeId="1025" r:id="rId4" name="Check Box 1">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>16</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>16</xdr:col>
-                    <xdr:colOff>771525</xdr:colOff>
+                    <xdr:colOff>774700</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4106,18 +4118,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId4" name="Check Box 2">
+            <control shapeId="1026" r:id="rId5" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>16</xdr:col>
                     <xdr:colOff>533400</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
+                    <xdr:colOff>127000</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4128,18 +4140,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId5" name="Check Box 3">
+            <control shapeId="1027" r:id="rId6" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:colOff>527050</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>828675</xdr:colOff>
+                    <xdr:colOff>831850</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/PriceEvaluationTableModel.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/PriceEvaluationTableModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\朱正义\source\repos\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A25BCB-E4C6-4A1D-9637-500437420B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB0FB94-D7F3-40BE-BF04-FB21F2BCDA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="164">
   <si>
     <t>密级：</t>
   </si>
@@ -608,6 +608,10 @@
   </si>
   <si>
     <t>{{Material.ModificationComments}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{TotalMoneyCynNoCustomerSupply}}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2057,77 +2061,8 @@
     <xf numFmtId="182" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="182" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2210,7 +2145,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2841,8 +2845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2940,27 +2944,27 @@
       <c r="V3" s="3"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="230" t="s">
+      <c r="A4" s="207" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="231"/>
-      <c r="C4" s="231"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="231"/>
-      <c r="F4" s="231"/>
-      <c r="G4" s="231"/>
-      <c r="H4" s="231"/>
-      <c r="I4" s="231"/>
-      <c r="J4" s="231"/>
-      <c r="K4" s="231"/>
-      <c r="L4" s="231"/>
-      <c r="M4" s="231"/>
-      <c r="N4" s="231"/>
-      <c r="O4" s="231"/>
-      <c r="P4" s="231"/>
-      <c r="Q4" s="231"/>
-      <c r="R4" s="231"/>
-      <c r="S4" s="232"/>
+      <c r="B4" s="208"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="208"/>
+      <c r="L4" s="208"/>
+      <c r="M4" s="208"/>
+      <c r="N4" s="208"/>
+      <c r="O4" s="208"/>
+      <c r="P4" s="208"/>
+      <c r="Q4" s="208"/>
+      <c r="R4" s="208"/>
+      <c r="S4" s="209"/>
       <c r="T4" s="11"/>
       <c r="U4" s="12"/>
       <c r="V4" s="183" t="s">
@@ -2968,88 +2972,88 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="233"/>
-      <c r="B5" s="234"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
-      <c r="G5" s="234"/>
-      <c r="H5" s="234"/>
-      <c r="I5" s="234"/>
-      <c r="J5" s="234"/>
-      <c r="K5" s="234"/>
-      <c r="L5" s="234"/>
-      <c r="M5" s="234"/>
-      <c r="N5" s="234"/>
-      <c r="O5" s="234"/>
-      <c r="P5" s="234"/>
-      <c r="Q5" s="234"/>
-      <c r="R5" s="234"/>
-      <c r="S5" s="235"/>
+      <c r="A5" s="210"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="211"/>
+      <c r="O5" s="211"/>
+      <c r="P5" s="211"/>
+      <c r="Q5" s="211"/>
+      <c r="R5" s="211"/>
+      <c r="S5" s="212"/>
       <c r="T5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="U5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="V5" s="239"/>
+      <c r="V5" s="216"/>
     </row>
     <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="233"/>
-      <c r="B6" s="234"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="234"/>
-      <c r="I6" s="234"/>
-      <c r="J6" s="234"/>
-      <c r="K6" s="234"/>
-      <c r="L6" s="234"/>
-      <c r="M6" s="234"/>
-      <c r="N6" s="234"/>
-      <c r="O6" s="234"/>
-      <c r="P6" s="234"/>
-      <c r="Q6" s="234"/>
-      <c r="R6" s="234"/>
-      <c r="S6" s="235"/>
+      <c r="A6" s="210"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="211"/>
+      <c r="O6" s="211"/>
+      <c r="P6" s="211"/>
+      <c r="Q6" s="211"/>
+      <c r="R6" s="211"/>
+      <c r="S6" s="212"/>
       <c r="T6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="V6" s="239"/>
+      <c r="V6" s="216"/>
     </row>
     <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="236"/>
-      <c r="B7" s="237"/>
-      <c r="C7" s="237"/>
-      <c r="D7" s="237"/>
-      <c r="E7" s="237"/>
-      <c r="F7" s="237"/>
-      <c r="G7" s="237"/>
-      <c r="H7" s="237"/>
-      <c r="I7" s="237"/>
-      <c r="J7" s="237"/>
-      <c r="K7" s="237"/>
-      <c r="L7" s="237"/>
-      <c r="M7" s="237"/>
-      <c r="N7" s="237"/>
-      <c r="O7" s="237"/>
-      <c r="P7" s="237"/>
-      <c r="Q7" s="237"/>
-      <c r="R7" s="237"/>
-      <c r="S7" s="238"/>
+      <c r="A7" s="213"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="214"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="214"/>
+      <c r="N7" s="214"/>
+      <c r="O7" s="214"/>
+      <c r="P7" s="214"/>
+      <c r="Q7" s="214"/>
+      <c r="R7" s="214"/>
+      <c r="S7" s="215"/>
       <c r="T7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="U7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="V7" s="240"/>
+      <c r="V7" s="217"/>
     </row>
     <row r="8" spans="1:23" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
@@ -3118,7 +3122,7 @@
       <c r="V8" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="W8" s="256" t="s">
+      <c r="W8" s="205" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3194,14 +3198,14 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.4">
-      <c r="A10" s="241" t="s">
+      <c r="A10" s="218" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="242"/>
-      <c r="C10" s="242"/>
-      <c r="D10" s="242"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
+      <c r="B10" s="219"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="220"/>
+      <c r="F10" s="220"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="28"/>
@@ -3211,7 +3215,9 @@
       <c r="M10" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="N10" s="31"/>
+      <c r="N10" s="31" t="s">
+        <v>163</v>
+      </c>
       <c r="O10" s="31" t="s">
         <v>103</v>
       </c>
@@ -3332,44 +3338,44 @@
       <c r="V14" s="188"/>
     </row>
     <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="244" t="s">
+      <c r="A15" s="221" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="245"/>
-      <c r="C15" s="245"/>
-      <c r="D15" s="245"/>
-      <c r="E15" s="246"/>
-      <c r="F15" s="246"/>
+      <c r="B15" s="222"/>
+      <c r="C15" s="222"/>
+      <c r="D15" s="222"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="223"/>
       <c r="G15" s="55"/>
-      <c r="H15" s="246" t="s">
+      <c r="H15" s="223" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="246"/>
-      <c r="J15" s="246"/>
-      <c r="K15" s="246"/>
-      <c r="L15" s="246"/>
-      <c r="M15" s="248" t="s">
+      <c r="I15" s="223"/>
+      <c r="J15" s="223"/>
+      <c r="K15" s="223"/>
+      <c r="L15" s="223"/>
+      <c r="M15" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="249"/>
-      <c r="O15" s="249"/>
-      <c r="P15" s="245"/>
-      <c r="Q15" s="247" t="s">
+      <c r="N15" s="226"/>
+      <c r="O15" s="226"/>
+      <c r="P15" s="222"/>
+      <c r="Q15" s="224" t="s">
         <v>35</v>
       </c>
-      <c r="R15" s="250"/>
-      <c r="S15" s="251"/>
-      <c r="T15" s="251"/>
-      <c r="U15" s="251"/>
-      <c r="V15" s="252"/>
+      <c r="R15" s="227"/>
+      <c r="S15" s="228"/>
+      <c r="T15" s="228"/>
+      <c r="U15" s="228"/>
+      <c r="V15" s="229"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="244"/>
-      <c r="B16" s="245"/>
-      <c r="C16" s="245"/>
-      <c r="D16" s="245"/>
-      <c r="E16" s="246"/>
-      <c r="F16" s="246"/>
+      <c r="A16" s="221"/>
+      <c r="B16" s="222"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="222"/>
+      <c r="E16" s="223"/>
+      <c r="F16" s="223"/>
       <c r="G16" s="55"/>
       <c r="H16" s="57" t="s">
         <v>36</v>
@@ -3398,22 +3404,22 @@
       <c r="P16" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="247"/>
-      <c r="R16" s="253"/>
-      <c r="S16" s="254"/>
-      <c r="T16" s="254"/>
-      <c r="U16" s="254"/>
-      <c r="V16" s="255"/>
+      <c r="Q16" s="224"/>
+      <c r="R16" s="230"/>
+      <c r="S16" s="231"/>
+      <c r="T16" s="231"/>
+      <c r="U16" s="231"/>
+      <c r="V16" s="232"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="222" t="s">
+      <c r="A17" s="233" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="223"/>
-      <c r="C17" s="223"/>
-      <c r="D17" s="223"/>
-      <c r="E17" s="224"/>
-      <c r="F17" s="224"/>
+      <c r="B17" s="234"/>
+      <c r="C17" s="234"/>
+      <c r="D17" s="234"/>
+      <c r="E17" s="235"/>
+      <c r="F17" s="235"/>
       <c r="G17" s="62"/>
       <c r="H17" s="63" t="s">
         <v>112</v>
@@ -3445,11 +3451,11 @@
       <c r="Q17" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="R17" s="253"/>
-      <c r="S17" s="254"/>
-      <c r="T17" s="254"/>
-      <c r="U17" s="254"/>
-      <c r="V17" s="255"/>
+      <c r="R17" s="230"/>
+      <c r="S17" s="231"/>
+      <c r="T17" s="231"/>
+      <c r="U17" s="231"/>
+      <c r="V17" s="232"/>
     </row>
     <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="64"/>
@@ -3476,14 +3482,14 @@
       <c r="V18" s="189"/>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="225" t="s">
+      <c r="A19" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="225"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="225"/>
-      <c r="E19" s="225"/>
-      <c r="F19" s="225"/>
+      <c r="B19" s="236"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="236"/>
+      <c r="E19" s="236"/>
+      <c r="F19" s="236"/>
       <c r="G19" s="73"/>
       <c r="H19" s="201"/>
       <c r="I19" s="199" t="s">
@@ -3514,14 +3520,14 @@
       <c r="V19" s="190"/>
     </row>
     <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="226" t="s">
+      <c r="A20" s="237" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="226"/>
-      <c r="C20" s="226"/>
-      <c r="D20" s="226"/>
-      <c r="E20" s="226"/>
-      <c r="F20" s="226"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="237"/>
+      <c r="D20" s="237"/>
+      <c r="E20" s="237"/>
+      <c r="F20" s="237"/>
       <c r="G20" s="83"/>
       <c r="H20" s="202"/>
       <c r="I20" s="75" t="s">
@@ -3552,14 +3558,14 @@
       <c r="V20" s="190"/>
     </row>
     <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="227" t="s">
+      <c r="A21" s="238" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="227"/>
-      <c r="C21" s="227"/>
-      <c r="D21" s="227"/>
-      <c r="E21" s="227"/>
-      <c r="F21" s="227"/>
+      <c r="B21" s="238"/>
+      <c r="C21" s="238"/>
+      <c r="D21" s="238"/>
+      <c r="E21" s="238"/>
+      <c r="F21" s="238"/>
       <c r="G21" s="203"/>
       <c r="H21" s="201"/>
       <c r="I21" s="75" t="s">
@@ -3614,14 +3620,14 @@
       <c r="V22" s="188"/>
     </row>
     <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="228" t="s">
+      <c r="A23" s="239" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="228"/>
-      <c r="C23" s="228"/>
-      <c r="D23" s="228"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="228"/>
+      <c r="B23" s="239"/>
+      <c r="C23" s="239"/>
+      <c r="D23" s="239"/>
+      <c r="E23" s="239"/>
+      <c r="F23" s="239"/>
       <c r="G23" s="96"/>
       <c r="H23" s="97" t="s">
         <v>46</v>
@@ -3668,14 +3674,14 @@
       <c r="V23" s="191"/>
     </row>
     <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="229" t="s">
+      <c r="A24" s="206" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="229"/>
-      <c r="C24" s="229"/>
-      <c r="D24" s="229"/>
-      <c r="E24" s="229"/>
-      <c r="F24" s="229"/>
+      <c r="B24" s="206"/>
+      <c r="C24" s="206"/>
+      <c r="D24" s="206"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="206"/>
       <c r="G24" s="103"/>
       <c r="H24" s="104" t="s">
         <v>147</v>
@@ -3746,36 +3752,36 @@
       <c r="V25" s="192"/>
     </row>
     <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="218" t="s">
+      <c r="A26" s="253" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="219"/>
-      <c r="C26" s="219"/>
-      <c r="D26" s="219"/>
-      <c r="E26" s="220"/>
-      <c r="F26" s="220"/>
+      <c r="B26" s="254"/>
+      <c r="C26" s="254"/>
+      <c r="D26" s="254"/>
+      <c r="E26" s="255"/>
+      <c r="F26" s="255"/>
       <c r="G26" s="119"/>
-      <c r="H26" s="221" t="s">
+      <c r="H26" s="256" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="221" t="s">
+      <c r="I26" s="256" t="s">
         <v>62</v>
       </c>
-      <c r="J26" s="220" t="s">
+      <c r="J26" s="255" t="s">
         <v>63</v>
       </c>
-      <c r="K26" s="220"/>
-      <c r="L26" s="220"/>
-      <c r="M26" s="220" t="s">
+      <c r="K26" s="255"/>
+      <c r="L26" s="255"/>
+      <c r="M26" s="255" t="s">
         <v>64</v>
       </c>
-      <c r="N26" s="220"/>
-      <c r="O26" s="220"/>
-      <c r="P26" s="220"/>
-      <c r="Q26" s="220" t="s">
+      <c r="N26" s="255"/>
+      <c r="O26" s="255"/>
+      <c r="P26" s="255"/>
+      <c r="Q26" s="255" t="s">
         <v>65</v>
       </c>
-      <c r="R26" s="205" t="s">
+      <c r="R26" s="240" t="s">
         <v>35</v>
       </c>
       <c r="S26" s="85"/>
@@ -3784,15 +3790,15 @@
       <c r="V26" s="190"/>
     </row>
     <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="218"/>
-      <c r="B27" s="219"/>
-      <c r="C27" s="219"/>
-      <c r="D27" s="219"/>
-      <c r="E27" s="220"/>
-      <c r="F27" s="220"/>
+      <c r="A27" s="253"/>
+      <c r="B27" s="254"/>
+      <c r="C27" s="254"/>
+      <c r="D27" s="254"/>
+      <c r="E27" s="255"/>
+      <c r="F27" s="255"/>
       <c r="G27" s="119"/>
-      <c r="H27" s="221"/>
-      <c r="I27" s="221"/>
+      <c r="H27" s="256"/>
+      <c r="I27" s="256"/>
       <c r="J27" s="120" t="s">
         <v>66</v>
       </c>
@@ -3812,20 +3818,20 @@
       <c r="P27" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="220"/>
-      <c r="R27" s="205"/>
+      <c r="Q27" s="255"/>
+      <c r="R27" s="240"/>
       <c r="S27" s="85"/>
       <c r="T27" s="61"/>
       <c r="U27" s="82"/>
       <c r="V27" s="190"/>
     </row>
     <row r="28" spans="1:22" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="218"/>
-      <c r="B28" s="219"/>
-      <c r="C28" s="219"/>
-      <c r="D28" s="219"/>
-      <c r="E28" s="220"/>
-      <c r="F28" s="220"/>
+      <c r="A28" s="253"/>
+      <c r="B28" s="254"/>
+      <c r="C28" s="254"/>
+      <c r="D28" s="254"/>
+      <c r="E28" s="255"/>
+      <c r="F28" s="255"/>
       <c r="G28" s="119"/>
       <c r="H28" s="123" t="s">
         <v>133</v>
@@ -3862,14 +3868,14 @@
       <c r="V28" s="193"/>
     </row>
     <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="206" t="s">
+      <c r="A29" s="241" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="207"/>
-      <c r="C29" s="207"/>
-      <c r="D29" s="207"/>
-      <c r="E29" s="208"/>
-      <c r="F29" s="208"/>
+      <c r="B29" s="242"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="242"/>
+      <c r="E29" s="243"/>
+      <c r="F29" s="243"/>
       <c r="G29" s="56"/>
       <c r="H29" s="124"/>
       <c r="I29" s="124"/>
@@ -3914,11 +3920,11 @@
       <c r="V30" s="54"/>
     </row>
     <row r="31" spans="1:22" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="209"/>
-      <c r="B31" s="210"/>
-      <c r="C31" s="210"/>
-      <c r="D31" s="211"/>
-      <c r="E31" s="215" t="s">
+      <c r="A31" s="244"/>
+      <c r="B31" s="245"/>
+      <c r="C31" s="245"/>
+      <c r="D31" s="246"/>
+      <c r="E31" s="250" t="s">
         <v>72</v>
       </c>
       <c r="F31" s="139" t="s">
@@ -3942,11 +3948,11 @@
       <c r="V31" s="142"/>
     </row>
     <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="212"/>
-      <c r="B32" s="213"/>
-      <c r="C32" s="213"/>
-      <c r="D32" s="214"/>
-      <c r="E32" s="215"/>
+      <c r="A32" s="247"/>
+      <c r="B32" s="248"/>
+      <c r="C32" s="248"/>
+      <c r="D32" s="249"/>
+      <c r="E32" s="250"/>
       <c r="F32" s="143" t="s">
         <v>74</v>
       </c>
@@ -3968,13 +3974,13 @@
       <c r="V32" s="142"/>
     </row>
     <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="216" t="s">
+      <c r="A33" s="251" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="217"/>
-      <c r="C33" s="217"/>
-      <c r="D33" s="217"/>
-      <c r="E33" s="217"/>
+      <c r="B33" s="252"/>
+      <c r="C33" s="252"/>
+      <c r="D33" s="252"/>
+      <c r="E33" s="252"/>
       <c r="F33" s="204" t="s">
         <v>143</v>
       </c>
@@ -4055,6 +4061,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A26:F28"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A4:S7"/>
     <mergeCell ref="V5:V7"/>
@@ -4069,17 +4086,6 @@
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A26:F28"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q26:Q27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/PriceEvaluationTableModel.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/PriceEvaluationTableModel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\朱正义\source\repos\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\代码\财务\二开\后端\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB0FB94-D7F3-40BE-BF04-FB21F2BCDA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61903E7-D63A-4F4D-BE69-504B30C6E49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,277 +341,278 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>{{Material.InputCount}}</t>
+  </si>
+  <si>
+    <t>{{Material.PurchaseCount}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Material.MoqShareCount}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Material.Moq}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Material.AvailableInventory}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Material.Remarks}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{TotalMoneyCynCount}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{LossCount}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{LossRateCount}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{MoqShareCountCount}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ElectronicSum.Name}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ElectronicSum.Value}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Material.MaterialName}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Material.IsCustomerSupplyStr}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Material.TotalMoneyCynNoCustomerSupply}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ManufacturingCostDto.CostItem}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ManufacturingCostDto.DirectLabor1}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ManufacturingCostDto.EquipmentDepreciation1}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ManufacturingCostDto.LineChangeCost1}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ManufacturingCostDto.ManufacturingExpenses1}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ManufacturingCostDto.Subtotal1}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ManufacturingCostDto.DirectLabor2}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ManufacturingCostDto.EquipmentDepreciation2}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ManufacturingCostDto.ManufacturingExpenses2}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ManufacturingCostDto.Subtotal2}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ManufacturingCostDto.Subtotal}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ShDzl}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ShJgl}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ShJs}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ShWxjg}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ShBzcl}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{MoqDzl}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{MoqJgl}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{MoqJs}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{MoqWxjg}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{MoqBzcl}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{WastageCostCount}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Fixture}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{LogisticsFee}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ProductCategory}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{CostProportionText}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{QualityCost}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{AccountingPeriod}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{CapitalCostRate}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{TaxCost}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Total}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{TotalCost}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PreparedDate}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{AuditDate}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ApprovalDate}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{OtherCostItem2.ItemName}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{OtherCostItem2.Total}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{OtherCostItem2.MoldCosts}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{OtherCostItem2.FixtureCost}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{OtherCostItem2.ToolCost}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{OtherCostItem2.InspectionCost}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{OtherCostItem2.ExperimentCost}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{OtherCostItem2.SpecializedEquipmentCost}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{OtherCostItem2.TestSoftwareCost}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{OtherCostItem2.OtherExpensesCost}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{OtherCostItem2.TravelCost}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{OtherCostItem2.SluggishCost}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{OtherCostItem2.RetentionCost}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{OtherCostItem2.LineCost}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{OtherCostItem2.OtherCost}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改意见</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Material.ModificationComments}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{TotalMoneyCynNoCustomerSupply}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>{{Material.MaterialCost}}</t>
-  </si>
-  <si>
-    <t>{{Material.InputCount}}</t>
-  </si>
-  <si>
-    <t>{{Material.PurchaseCount}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Material.MoqShareCount}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Material.Moq}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Material.AvailableInventory}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Material.Remarks}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{TotalMoneyCynCount}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{LossCount}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{LossRateCount}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{MoqShareCountCount}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ElectronicSum.Name}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ElectronicSum.Value}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Material.MaterialName}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Material.IsCustomerSupplyStr}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Material.TotalMoneyCynNoCustomerSupply}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ManufacturingCostDto.CostItem}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ManufacturingCostDto.DirectLabor1}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ManufacturingCostDto.EquipmentDepreciation1}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ManufacturingCostDto.LineChangeCost1}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ManufacturingCostDto.ManufacturingExpenses1}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ManufacturingCostDto.Subtotal1}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ManufacturingCostDto.DirectLabor2}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ManufacturingCostDto.EquipmentDepreciation2}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ManufacturingCostDto.ManufacturingExpenses2}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ManufacturingCostDto.Subtotal2}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ManufacturingCostDto.Subtotal}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ShDzl}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ShJgl}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ShJs}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ShWxjg}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ShBzcl}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{MoqDzl}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{MoqJgl}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{MoqJs}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{MoqWxjg}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{MoqBzcl}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{WastageCostCount}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Fixture}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{LogisticsFee}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ProductCategory}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{CostProportionText}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{QualityCost}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{AccountingPeriod}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{CapitalCostRate}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{TaxCost}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Total}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{TotalCost}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{PreparedDate}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{AuditDate}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ApprovalDate}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{OtherCostItem2.ItemName}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{OtherCostItem2.Total}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{OtherCostItem2.MoldCosts}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{OtherCostItem2.FixtureCost}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{OtherCostItem2.ToolCost}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{OtherCostItem2.InspectionCost}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{OtherCostItem2.ExperimentCost}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{OtherCostItem2.SpecializedEquipmentCost}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{OtherCostItem2.TestSoftwareCost}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{OtherCostItem2.OtherExpensesCost}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{OtherCostItem2.TravelCost}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{OtherCostItem2.SluggishCost}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{OtherCostItem2.RetentionCost}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{OtherCostItem2.LineCost}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{OtherCostItem2.OtherCost}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改意见</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Material.ModificationComments}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{TotalMoneyCynNoCustomerSupply}}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +620,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -628,6 +629,7 @@
     <numFmt numFmtId="180" formatCode="0;[Red]0"/>
     <numFmt numFmtId="181" formatCode="#,##0_ "/>
     <numFmt numFmtId="182" formatCode="[$-409]d/mmm;@"/>
+    <numFmt numFmtId="183" formatCode="0.00000_);[Red]\(0.00000\)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1481,7 +1483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1975,9 +1977,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2046,7 +2045,7 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2064,6 +2063,57 @@
     <xf numFmtId="182" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2079,7 +2129,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2139,7 +2189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2166,56 +2216,11 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="183" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2254,15 +2259,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>774700</xdr:colOff>
+          <xdr:colOff>771525</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2311,7 +2316,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2352,11 +2357,11 @@
           <xdr:col>16</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>127000</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2407,7 +2412,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2446,13 +2451,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>527050</xdr:colOff>
+          <xdr:colOff>523875</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>831850</xdr:colOff>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2503,7 +2508,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2845,29 +2850,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="9.58203125" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
     <col min="13" max="13" width="11.75" customWidth="1"/>
-    <col min="14" max="14" width="13.08203125" customWidth="1"/>
+    <col min="14" max="14" width="13.125" customWidth="1"/>
     <col min="15" max="15" width="15.5" customWidth="1"/>
     <col min="16" max="16" width="13.5" customWidth="1"/>
     <col min="17" max="17" width="12.75" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" customWidth="1"/>
+    <col min="18" max="18" width="12.875" customWidth="1"/>
     <col min="19" max="19" width="12.5" customWidth="1"/>
-    <col min="20" max="20" width="12.08203125" customWidth="1"/>
+    <col min="20" max="20" width="12.125" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2891,7 +2896,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2917,8 +2922,8 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="195"/>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="194"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2928,134 +2933,134 @@
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="196"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="198" t="s">
+      <c r="K3" s="194"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="196"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="196"/>
+      <c r="R3" s="196"/>
+      <c r="S3" s="197" t="s">
         <v>1</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="207" t="s">
+    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="223" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="208"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="208"/>
-      <c r="K4" s="208"/>
-      <c r="L4" s="208"/>
-      <c r="M4" s="208"/>
-      <c r="N4" s="208"/>
-      <c r="O4" s="208"/>
-      <c r="P4" s="208"/>
-      <c r="Q4" s="208"/>
-      <c r="R4" s="208"/>
-      <c r="S4" s="209"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="224"/>
+      <c r="M4" s="224"/>
+      <c r="N4" s="224"/>
+      <c r="O4" s="224"/>
+      <c r="P4" s="224"/>
+      <c r="Q4" s="224"/>
+      <c r="R4" s="224"/>
+      <c r="S4" s="225"/>
       <c r="T4" s="11"/>
       <c r="U4" s="12"/>
-      <c r="V4" s="183" t="s">
+      <c r="V4" s="182" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="210"/>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="211"/>
-      <c r="K5" s="211"/>
-      <c r="L5" s="211"/>
-      <c r="M5" s="211"/>
-      <c r="N5" s="211"/>
-      <c r="O5" s="211"/>
-      <c r="P5" s="211"/>
-      <c r="Q5" s="211"/>
-      <c r="R5" s="211"/>
-      <c r="S5" s="212"/>
+    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="226"/>
+      <c r="B5" s="227"/>
+      <c r="C5" s="227"/>
+      <c r="D5" s="227"/>
+      <c r="E5" s="227"/>
+      <c r="F5" s="227"/>
+      <c r="G5" s="227"/>
+      <c r="H5" s="227"/>
+      <c r="I5" s="227"/>
+      <c r="J5" s="227"/>
+      <c r="K5" s="227"/>
+      <c r="L5" s="227"/>
+      <c r="M5" s="227"/>
+      <c r="N5" s="227"/>
+      <c r="O5" s="227"/>
+      <c r="P5" s="227"/>
+      <c r="Q5" s="227"/>
+      <c r="R5" s="227"/>
+      <c r="S5" s="228"/>
       <c r="T5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="U5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="V5" s="216"/>
+      <c r="V5" s="232"/>
     </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="210"/>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="211"/>
-      <c r="N6" s="211"/>
-      <c r="O6" s="211"/>
-      <c r="P6" s="211"/>
-      <c r="Q6" s="211"/>
-      <c r="R6" s="211"/>
-      <c r="S6" s="212"/>
+    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="226"/>
+      <c r="B6" s="227"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="227"/>
+      <c r="L6" s="227"/>
+      <c r="M6" s="227"/>
+      <c r="N6" s="227"/>
+      <c r="O6" s="227"/>
+      <c r="P6" s="227"/>
+      <c r="Q6" s="227"/>
+      <c r="R6" s="227"/>
+      <c r="S6" s="228"/>
       <c r="T6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="V6" s="216"/>
+      <c r="V6" s="232"/>
     </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="213"/>
-      <c r="B7" s="214"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="214"/>
-      <c r="I7" s="214"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="214"/>
-      <c r="L7" s="214"/>
-      <c r="M7" s="214"/>
-      <c r="N7" s="214"/>
-      <c r="O7" s="214"/>
-      <c r="P7" s="214"/>
-      <c r="Q7" s="214"/>
-      <c r="R7" s="214"/>
-      <c r="S7" s="215"/>
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="229"/>
+      <c r="B7" s="230"/>
+      <c r="C7" s="230"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="230"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="230"/>
+      <c r="I7" s="230"/>
+      <c r="J7" s="230"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="230"/>
+      <c r="M7" s="230"/>
+      <c r="N7" s="230"/>
+      <c r="O7" s="230"/>
+      <c r="P7" s="230"/>
+      <c r="Q7" s="230"/>
+      <c r="R7" s="230"/>
+      <c r="S7" s="231"/>
       <c r="T7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="U7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="V7" s="217"/>
+      <c r="V7" s="233"/>
     </row>
-    <row r="8" spans="1:23" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -3092,10 +3097,10 @@
       <c r="L8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="176" t="s">
+      <c r="M8" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="176" t="s">
+      <c r="N8" s="175" t="s">
         <v>19</v>
       </c>
       <c r="O8" s="22" t="s">
@@ -3119,14 +3124,14 @@
       <c r="U8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="V8" s="184" t="s">
+      <c r="V8" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="W8" s="205" t="s">
-        <v>161</v>
+      <c r="W8" s="204" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>83</v>
       </c>
@@ -3143,69 +3148,69 @@
         <v>87</v>
       </c>
       <c r="F9" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>108</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>109</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="256" t="s">
         <v>89</v>
       </c>
       <c r="J9" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="256" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="256" t="s">
         <v>92</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="256" t="s">
         <v>93</v>
       </c>
-      <c r="N9" s="175" t="s">
-        <v>110</v>
-      </c>
-      <c r="O9" s="25" t="s">
+      <c r="N9" s="257" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" s="256" t="s">
         <v>94</v>
       </c>
-      <c r="P9" s="25" t="s">
+      <c r="P9" s="256" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q9" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="Q9" s="25" t="s">
+      <c r="R9" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="S9" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="T9" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="T9" s="25" t="s">
+      <c r="U9" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="U9" s="25" t="s">
+      <c r="V9" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="V9" s="185" t="s">
-        <v>101</v>
-      </c>
       <c r="W9" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.4">
-      <c r="A10" s="218" t="s">
+    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="234" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="219"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="220"/>
+      <c r="B10" s="235"/>
+      <c r="C10" s="235"/>
+      <c r="D10" s="235"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="28"/>
@@ -3213,27 +3218,27 @@
       <c r="K10" s="30"/>
       <c r="L10" s="26"/>
       <c r="M10" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O10" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="N10" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O10" s="31" t="s">
+      <c r="P10" s="31" t="s">
         <v>103</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>104</v>
       </c>
       <c r="Q10" s="32"/>
       <c r="R10" s="32"/>
       <c r="S10" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T10" s="33"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="186"/>
+      <c r="V10" s="185"/>
     </row>
-    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="34"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -3259,20 +3264,20 @@
       <c r="S11" s="41"/>
       <c r="T11" s="43"/>
       <c r="U11" s="40"/>
-      <c r="V11" s="187"/>
+      <c r="V11" s="186"/>
     </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I12" s="38"/>
       <c r="J12" s="39"/>
@@ -3287,9 +3292,9 @@
       <c r="S12" s="41"/>
       <c r="T12" s="43"/>
       <c r="U12" s="40"/>
-      <c r="V12" s="187"/>
+      <c r="V12" s="186"/>
     </row>
-    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -3311,9 +3316,9 @@
       <c r="S13" s="41"/>
       <c r="T13" s="43"/>
       <c r="U13" s="40"/>
-      <c r="V13" s="187"/>
+      <c r="V13" s="186"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="44"/>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
@@ -3331,51 +3336,51 @@
       <c r="O14" s="52"/>
       <c r="P14" s="52"/>
       <c r="Q14" s="52"/>
-      <c r="R14" s="179"/>
-      <c r="S14" s="180"/>
-      <c r="T14" s="181"/>
-      <c r="U14" s="180"/>
-      <c r="V14" s="188"/>
+      <c r="R14" s="178"/>
+      <c r="S14" s="179"/>
+      <c r="T14" s="180"/>
+      <c r="U14" s="179"/>
+      <c r="V14" s="187"/>
     </row>
-    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="221" t="s">
+    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="222"/>
-      <c r="C15" s="222"/>
-      <c r="D15" s="222"/>
-      <c r="E15" s="223"/>
-      <c r="F15" s="223"/>
+      <c r="B15" s="238"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="239"/>
+      <c r="F15" s="239"/>
       <c r="G15" s="55"/>
-      <c r="H15" s="223" t="s">
+      <c r="H15" s="239" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="223"/>
-      <c r="J15" s="223"/>
-      <c r="K15" s="223"/>
-      <c r="L15" s="223"/>
-      <c r="M15" s="225" t="s">
+      <c r="I15" s="239"/>
+      <c r="J15" s="239"/>
+      <c r="K15" s="239"/>
+      <c r="L15" s="239"/>
+      <c r="M15" s="241" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="226"/>
-      <c r="O15" s="226"/>
-      <c r="P15" s="222"/>
-      <c r="Q15" s="224" t="s">
+      <c r="N15" s="242"/>
+      <c r="O15" s="242"/>
+      <c r="P15" s="238"/>
+      <c r="Q15" s="240" t="s">
         <v>35</v>
       </c>
-      <c r="R15" s="227"/>
-      <c r="S15" s="228"/>
-      <c r="T15" s="228"/>
-      <c r="U15" s="228"/>
-      <c r="V15" s="229"/>
+      <c r="R15" s="243"/>
+      <c r="S15" s="244"/>
+      <c r="T15" s="244"/>
+      <c r="U15" s="244"/>
+      <c r="V15" s="245"/>
     </row>
-    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="221"/>
-      <c r="B16" s="222"/>
-      <c r="C16" s="222"/>
-      <c r="D16" s="222"/>
-      <c r="E16" s="223"/>
-      <c r="F16" s="223"/>
+    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="237"/>
+      <c r="B16" s="238"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="239"/>
+      <c r="F16" s="239"/>
       <c r="G16" s="55"/>
       <c r="H16" s="57" t="s">
         <v>36</v>
@@ -3404,60 +3409,60 @@
       <c r="P16" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="224"/>
-      <c r="R16" s="230"/>
-      <c r="S16" s="231"/>
-      <c r="T16" s="231"/>
-      <c r="U16" s="231"/>
-      <c r="V16" s="232"/>
+      <c r="Q16" s="240"/>
+      <c r="R16" s="246"/>
+      <c r="S16" s="247"/>
+      <c r="T16" s="247"/>
+      <c r="U16" s="247"/>
+      <c r="V16" s="248"/>
     </row>
-    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="233" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="234"/>
-      <c r="C17" s="234"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="235"/>
-      <c r="F17" s="235"/>
+    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="249" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="250"/>
+      <c r="C17" s="250"/>
+      <c r="D17" s="250"/>
+      <c r="E17" s="251"/>
+      <c r="F17" s="251"/>
       <c r="G17" s="62"/>
       <c r="H17" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="I17" s="63" t="s">
+      <c r="J17" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="J17" s="63" t="s">
+      <c r="K17" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="K17" s="63" t="s">
+      <c r="L17" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="63" t="s">
+      <c r="M17" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="M17" s="63" t="s">
+      <c r="N17" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="N17" s="63" t="s">
+      <c r="O17" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="O17" s="63" t="s">
+      <c r="P17" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="63" t="s">
+      <c r="Q17" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="Q17" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="R17" s="230"/>
-      <c r="S17" s="231"/>
-      <c r="T17" s="231"/>
-      <c r="U17" s="231"/>
-      <c r="V17" s="232"/>
+      <c r="R17" s="246"/>
+      <c r="S17" s="247"/>
+      <c r="T17" s="247"/>
+      <c r="U17" s="247"/>
+      <c r="V17" s="248"/>
     </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="64"/>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
@@ -3475,24 +3480,24 @@
       <c r="O18" s="71"/>
       <c r="P18" s="71"/>
       <c r="Q18" s="71"/>
-      <c r="R18" s="182"/>
-      <c r="S18" s="177"/>
-      <c r="T18" s="178"/>
-      <c r="U18" s="177"/>
-      <c r="V18" s="189"/>
+      <c r="R18" s="181"/>
+      <c r="S18" s="176"/>
+      <c r="T18" s="177"/>
+      <c r="U18" s="176"/>
+      <c r="V18" s="188"/>
     </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="236" t="s">
+    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="252" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="236"/>
-      <c r="C19" s="236"/>
-      <c r="D19" s="236"/>
-      <c r="E19" s="236"/>
-      <c r="F19" s="236"/>
+      <c r="B19" s="252"/>
+      <c r="C19" s="252"/>
+      <c r="D19" s="252"/>
+      <c r="E19" s="252"/>
+      <c r="F19" s="252"/>
       <c r="G19" s="73"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="199" t="s">
+      <c r="H19" s="200"/>
+      <c r="I19" s="198" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="75" t="s">
@@ -3517,37 +3522,37 @@
       <c r="S19" s="79"/>
       <c r="T19" s="81"/>
       <c r="U19" s="82"/>
-      <c r="V19" s="190"/>
+      <c r="V19" s="189"/>
     </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="237" t="s">
+    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="253" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="237"/>
-      <c r="C20" s="237"/>
-      <c r="D20" s="237"/>
-      <c r="E20" s="237"/>
-      <c r="F20" s="237"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="253"/>
+      <c r="D20" s="253"/>
+      <c r="E20" s="253"/>
+      <c r="F20" s="253"/>
       <c r="G20" s="83"/>
-      <c r="H20" s="202"/>
+      <c r="H20" s="201"/>
       <c r="I20" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="J20" s="75" t="s">
+      <c r="K20" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="77" t="s">
+      <c r="L20" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="L20" s="77" t="s">
+      <c r="M20" s="77" t="s">
         <v>125</v>
-      </c>
-      <c r="M20" s="77" t="s">
-        <v>126</v>
       </c>
       <c r="N20" s="77"/>
       <c r="O20" s="84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P20" s="79"/>
       <c r="Q20" s="79"/>
@@ -3555,37 +3560,37 @@
       <c r="S20" s="79"/>
       <c r="T20" s="81"/>
       <c r="U20" s="82"/>
-      <c r="V20" s="190"/>
+      <c r="V20" s="189"/>
     </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="238" t="s">
+    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="254" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="238"/>
-      <c r="C21" s="238"/>
-      <c r="D21" s="238"/>
-      <c r="E21" s="238"/>
-      <c r="F21" s="238"/>
-      <c r="G21" s="203"/>
-      <c r="H21" s="201"/>
+      <c r="B21" s="254"/>
+      <c r="C21" s="254"/>
+      <c r="D21" s="254"/>
+      <c r="E21" s="254"/>
+      <c r="F21" s="254"/>
+      <c r="G21" s="202"/>
+      <c r="H21" s="200"/>
       <c r="I21" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="J21" s="75" t="s">
+      <c r="K21" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="K21" s="77" t="s">
+      <c r="L21" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="L21" s="77" t="s">
+      <c r="M21" s="77" t="s">
         <v>130</v>
-      </c>
-      <c r="M21" s="77" t="s">
-        <v>131</v>
       </c>
       <c r="N21" s="77"/>
       <c r="O21" s="84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P21" s="85"/>
       <c r="Q21" s="85"/>
@@ -3593,9 +3598,9 @@
       <c r="S21" s="85"/>
       <c r="T21" s="61"/>
       <c r="U21" s="82"/>
-      <c r="V21" s="190"/>
+      <c r="V21" s="189"/>
     </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="86"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
@@ -3603,7 +3608,7 @@
       <c r="E22" s="88"/>
       <c r="F22" s="89"/>
       <c r="G22" s="90"/>
-      <c r="H22" s="200"/>
+      <c r="H22" s="199"/>
       <c r="I22" s="91"/>
       <c r="J22" s="92"/>
       <c r="K22" s="93"/>
@@ -3617,17 +3622,17 @@
       <c r="S22" s="93"/>
       <c r="T22" s="94"/>
       <c r="U22" s="93"/>
-      <c r="V22" s="188"/>
+      <c r="V22" s="187"/>
     </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="239" t="s">
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="255" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="239"/>
-      <c r="C23" s="239"/>
-      <c r="D23" s="239"/>
-      <c r="E23" s="239"/>
-      <c r="F23" s="239"/>
+      <c r="B23" s="255"/>
+      <c r="C23" s="255"/>
+      <c r="D23" s="255"/>
+      <c r="E23" s="255"/>
+      <c r="F23" s="255"/>
       <c r="G23" s="96"/>
       <c r="H23" s="97" t="s">
         <v>46</v>
@@ -3671,63 +3676,63 @@
       <c r="U23" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="V23" s="191"/>
+      <c r="V23" s="190"/>
     </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="206" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" s="206"/>
-      <c r="C24" s="206"/>
-      <c r="D24" s="206"/>
-      <c r="E24" s="206"/>
-      <c r="F24" s="206"/>
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="222" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="222"/>
+      <c r="C24" s="222"/>
+      <c r="D24" s="222"/>
+      <c r="E24" s="222"/>
+      <c r="F24" s="222"/>
       <c r="G24" s="103"/>
       <c r="H24" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" s="105" t="s">
         <v>147</v>
       </c>
-      <c r="I24" s="105" t="s">
+      <c r="J24" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="J24" s="105" t="s">
+      <c r="K24" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="K24" s="105" t="s">
+      <c r="L24" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="L24" s="105" t="s">
+      <c r="M24" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="M24" s="105" t="s">
+      <c r="N24" s="105" t="s">
         <v>152</v>
       </c>
-      <c r="N24" s="105" t="s">
+      <c r="O24" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="O24" s="105" t="s">
+      <c r="P24" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="P24" s="105" t="s">
+      <c r="Q24" s="105" t="s">
         <v>155</v>
       </c>
-      <c r="Q24" s="105" t="s">
+      <c r="R24" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="R24" s="105" t="s">
+      <c r="S24" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="S24" s="105" t="s">
+      <c r="T24" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="T24" s="105" t="s">
+      <c r="U24" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="U24" s="105" t="s">
-        <v>160</v>
-      </c>
-      <c r="V24" s="191"/>
+      <c r="V24" s="190"/>
     </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="106"/>
       <c r="B25" s="107"/>
       <c r="C25" s="107"/>
@@ -3749,56 +3754,56 @@
       <c r="S25" s="117"/>
       <c r="T25" s="118"/>
       <c r="U25" s="117"/>
-      <c r="V25" s="192"/>
+      <c r="V25" s="191"/>
     </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="253" t="s">
+    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="218" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="254"/>
-      <c r="C26" s="254"/>
-      <c r="D26" s="254"/>
-      <c r="E26" s="255"/>
-      <c r="F26" s="255"/>
+      <c r="B26" s="219"/>
+      <c r="C26" s="219"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="220"/>
       <c r="G26" s="119"/>
-      <c r="H26" s="256" t="s">
+      <c r="H26" s="221" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="256" t="s">
+      <c r="I26" s="221" t="s">
         <v>62</v>
       </c>
-      <c r="J26" s="255" t="s">
+      <c r="J26" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="K26" s="255"/>
-      <c r="L26" s="255"/>
-      <c r="M26" s="255" t="s">
+      <c r="K26" s="220"/>
+      <c r="L26" s="220"/>
+      <c r="M26" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="N26" s="255"/>
-      <c r="O26" s="255"/>
-      <c r="P26" s="255"/>
-      <c r="Q26" s="255" t="s">
+      <c r="N26" s="220"/>
+      <c r="O26" s="220"/>
+      <c r="P26" s="220"/>
+      <c r="Q26" s="220" t="s">
         <v>65</v>
       </c>
-      <c r="R26" s="240" t="s">
+      <c r="R26" s="205" t="s">
         <v>35</v>
       </c>
       <c r="S26" s="85"/>
       <c r="T26" s="61"/>
       <c r="U26" s="82"/>
-      <c r="V26" s="190"/>
+      <c r="V26" s="189"/>
     </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="253"/>
-      <c r="B27" s="254"/>
-      <c r="C27" s="254"/>
-      <c r="D27" s="254"/>
-      <c r="E27" s="255"/>
-      <c r="F27" s="255"/>
+    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="218"/>
+      <c r="B27" s="219"/>
+      <c r="C27" s="219"/>
+      <c r="D27" s="219"/>
+      <c r="E27" s="220"/>
+      <c r="F27" s="220"/>
       <c r="G27" s="119"/>
-      <c r="H27" s="256"/>
-      <c r="I27" s="256"/>
+      <c r="H27" s="221"/>
+      <c r="I27" s="221"/>
       <c r="J27" s="120" t="s">
         <v>66</v>
       </c>
@@ -3818,64 +3823,64 @@
       <c r="P27" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="255"/>
-      <c r="R27" s="240"/>
+      <c r="Q27" s="220"/>
+      <c r="R27" s="205"/>
       <c r="S27" s="85"/>
       <c r="T27" s="61"/>
       <c r="U27" s="82"/>
-      <c r="V27" s="190"/>
+      <c r="V27" s="189"/>
     </row>
-    <row r="28" spans="1:22" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="253"/>
-      <c r="B28" s="254"/>
-      <c r="C28" s="254"/>
-      <c r="D28" s="254"/>
-      <c r="E28" s="255"/>
-      <c r="F28" s="255"/>
+    <row r="28" spans="1:22" ht="36" x14ac:dyDescent="0.2">
+      <c r="A28" s="218"/>
+      <c r="B28" s="219"/>
+      <c r="C28" s="219"/>
+      <c r="D28" s="219"/>
+      <c r="E28" s="220"/>
+      <c r="F28" s="220"/>
       <c r="G28" s="119"/>
       <c r="H28" s="123" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="123" t="s">
+      <c r="J28" s="123" t="s">
         <v>134</v>
       </c>
-      <c r="J28" s="123" t="s">
+      <c r="K28" s="123" t="s">
         <v>135</v>
       </c>
-      <c r="K28" s="123" t="s">
+      <c r="L28" s="123" t="s">
         <v>136</v>
       </c>
-      <c r="L28" s="123" t="s">
+      <c r="M28" s="123" t="s">
         <v>137</v>
-      </c>
-      <c r="M28" s="123" t="s">
-        <v>138</v>
       </c>
       <c r="N28" s="123"/>
       <c r="O28" s="123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P28" s="123"/>
       <c r="Q28" s="123" t="s">
+        <v>139</v>
+      </c>
+      <c r="R28" s="123" t="s">
         <v>140</v>
-      </c>
-      <c r="R28" s="123" t="s">
-        <v>141</v>
       </c>
       <c r="S28" s="77"/>
       <c r="T28" s="77"/>
       <c r="U28" s="77"/>
-      <c r="V28" s="193"/>
+      <c r="V28" s="192"/>
     </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="241" t="s">
+    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="206" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="242"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="242"/>
-      <c r="E29" s="243"/>
-      <c r="F29" s="243"/>
+      <c r="B29" s="207"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="208"/>
+      <c r="F29" s="208"/>
       <c r="G29" s="56"/>
       <c r="H29" s="124"/>
       <c r="I29" s="124"/>
@@ -3888,14 +3893,14 @@
       <c r="P29" s="129"/>
       <c r="Q29" s="129"/>
       <c r="R29" s="123" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S29" s="130"/>
       <c r="T29" s="77"/>
       <c r="U29" s="131"/>
-      <c r="V29" s="194"/>
+      <c r="V29" s="193"/>
     </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="132"/>
       <c r="B30" s="133"/>
       <c r="C30" s="133"/>
@@ -3919,12 +3924,12 @@
       <c r="U30" s="71"/>
       <c r="V30" s="54"/>
     </row>
-    <row r="31" spans="1:22" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="244"/>
-      <c r="B31" s="245"/>
-      <c r="C31" s="245"/>
-      <c r="D31" s="246"/>
-      <c r="E31" s="250" t="s">
+    <row r="31" spans="1:22" ht="33" x14ac:dyDescent="0.2">
+      <c r="A31" s="209"/>
+      <c r="B31" s="210"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="211"/>
+      <c r="E31" s="215" t="s">
         <v>72</v>
       </c>
       <c r="F31" s="139" t="s">
@@ -3947,12 +3952,12 @@
       <c r="U31" s="131"/>
       <c r="V31" s="142"/>
     </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="247"/>
-      <c r="B32" s="248"/>
-      <c r="C32" s="248"/>
-      <c r="D32" s="249"/>
-      <c r="E32" s="250"/>
+    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="212"/>
+      <c r="B32" s="213"/>
+      <c r="C32" s="213"/>
+      <c r="D32" s="214"/>
+      <c r="E32" s="215"/>
       <c r="F32" s="143" t="s">
         <v>74</v>
       </c>
@@ -3973,23 +3978,23 @@
       <c r="U32" s="131"/>
       <c r="V32" s="142"/>
     </row>
-    <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="251" t="s">
+    <row r="33" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="216" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="252"/>
-      <c r="C33" s="252"/>
-      <c r="D33" s="252"/>
-      <c r="E33" s="252"/>
-      <c r="F33" s="204" t="s">
-        <v>143</v>
+      <c r="B33" s="217"/>
+      <c r="C33" s="217"/>
+      <c r="D33" s="217"/>
+      <c r="E33" s="217"/>
+      <c r="F33" s="203" t="s">
+        <v>142</v>
       </c>
       <c r="G33" s="147"/>
       <c r="H33" s="148" t="s">
         <v>76</v>
       </c>
       <c r="I33" s="148" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J33" s="146"/>
       <c r="K33" s="146"/>
@@ -3997,7 +4002,7 @@
         <v>77</v>
       </c>
       <c r="M33" s="149" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N33" s="149"/>
       <c r="O33" s="149"/>
@@ -4009,7 +4014,7 @@
       <c r="U33" s="150"/>
       <c r="V33" s="151"/>
     </row>
-    <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="152"/>
       <c r="B34" s="153"/>
       <c r="C34" s="153"/>
@@ -4035,7 +4040,7 @@
       <c r="U34" s="158"/>
       <c r="V34" s="161"/>
     </row>
-    <row r="35" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="162"/>
       <c r="B35" s="163"/>
       <c r="C35" s="163"/>
@@ -4061,17 +4066,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A26:F28"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A4:S7"/>
     <mergeCell ref="V5:V7"/>
@@ -4086,6 +4080,17 @@
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A23:F23"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A26:F28"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:Q27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -4107,15 +4112,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>16</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>16</xdr:col>
-                    <xdr:colOff>774700</xdr:colOff>
+                    <xdr:colOff>771525</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4131,11 +4136,11 @@
                     <xdr:col>16</xdr:col>
                     <xdr:colOff>533400</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>127000</xdr:colOff>
+                    <xdr:colOff>123825</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4151,13 +4156,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>527050</xdr:colOff>
+                    <xdr:colOff>523875</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>831850</xdr:colOff>
+                    <xdr:colOff>828675</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
